--- a/biology/Histoire de la zoologie et de la botanique/Teodor_T._Nalbant/Teodor_T._Nalbant.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Teodor_T._Nalbant/Teodor_T._Nalbant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Teodor T. Nalbant est un ichtyologiste roumain, né le 18 décembre 1933 et mort le 12 novembre 2011.
-Né à Constanța, sur les rives de la mer Noire, Teodor Nalbant côtoie des pêcheurs du delta du Danube. À l'issue de ses études secondaires, il entreprend des études de biologie à Cluj ; pendant cette période, il sympathise avec Petre Mihai Bănărescu avec qui il collabore plus tard à de nombreuses reprises[1]. Nalbant rejoint ensuite l'université de Bucarest. Au cours de sa carrière, il publie plus de 150 articles aux thèmes variés et liés plus ou moins fortement à son champ d'étude. Il officie au muséum d'histoire naturelle de Bucarest et prend part à de nombreuses expéditions scientifiques dans les océans Atlantique, Pacifique et Indien. Il est à l'origine de la description de 82 taxons[2].
+Né à Constanța, sur les rives de la mer Noire, Teodor Nalbant côtoie des pêcheurs du delta du Danube. À l'issue de ses études secondaires, il entreprend des études de biologie à Cluj ; pendant cette période, il sympathise avec Petre Mihai Bănărescu avec qui il collabore plus tard à de nombreuses reprises. Nalbant rejoint ensuite l'université de Bucarest. Au cours de sa carrière, il publie plus de 150 articles aux thèmes variés et liés plus ou moins fortement à son champ d'étude. Il officie au muséum d'histoire naturelle de Bucarest et prend part à de nombreuses expéditions scientifiques dans les océans Atlantique, Pacifique et Indien. Il est à l'origine de la description de 82 taxons.
 Plusieurs taxons ont été nommés en l'honneur de Teodor Nalbant parmi lesquels le genre Nalbantichtys (Schultz, 1967), le sous-genre Nalbantius (Mauge et Bauchot, 1984), ainsi que les espèces  Schistura nalbanti (Mîrza et Bănărescu, 1979) et Cyclaspis nalbanti (Petrescu, 1998).
 </t>
         </is>
